--- a/predictions/single/RandomForestRegressor/Amputación extremidades inferiores.xlsx
+++ b/predictions/single/RandomForestRegressor/Amputación extremidades inferiores.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1263842241294485</v>
+        <v>0.1281500838538849</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9906622731070167</v>
+        <v>0.9905318049575962</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/RandomForestRegressor/Amputación extremidades inferiores.xlsx
+++ b/predictions/single/RandomForestRegressor/Amputación extremidades inferiores.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1281500838538849</v>
+        <v>0.1267783730340683</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9905318049575962</v>
+        <v>0.9906331519500696</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/RandomForestRegressor/Amputación extremidades inferiores.xlsx
+++ b/predictions/single/RandomForestRegressor/Amputación extremidades inferiores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1267783730340683</v>
+        <v>0.1273602494090013</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9906331519500696</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9905901608037296</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2777058516343318</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
         </is>

--- a/predictions/single/RandomForestRegressor/Amputación extremidades inferiores.xlsx
+++ b/predictions/single/RandomForestRegressor/Amputación extremidades inferiores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1273602494090013</v>
+        <v>0.1261900591977314</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9905901608037296</v>
+        <v>0.9906766187195095</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2777058516343318</v>
+        <v>0.2768148751524423</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=5, n_estimators=50))])</t>
         </is>
       </c>
     </row>

--- a/predictions/single/RandomForestRegressor/Amputación extremidades inferiores.xlsx
+++ b/predictions/single/RandomForestRegressor/Amputación extremidades inferiores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1261900591977314</v>
+        <v>0.1270053685299624</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9906766187195095</v>
+        <v>0.9906163806958945</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2768148751524423</v>
+        <v>0.2768938502609059</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -487,8 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=5, n_estimators=50))])</t>
-        </is>
+          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=5))])</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1434780816666413</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.992</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/RandomForestRegressor/Amputación extremidades inferiores.xlsx
+++ b/predictions/single/RandomForestRegressor/Amputación extremidades inferiores.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1270053685299624</v>
+        <v>0.1247159586397389</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9906163806958945</v>
+        <v>0.9907855306388423</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2768938502609059</v>
+        <v>0.2736249388562005</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1434780816666413</v>
+        <v>0.1507174699167081</v>
       </c>
       <c r="H2" t="n">
-        <v>0.992</v>
+        <v>0.961</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/RandomForestRegressor/Amputación extremidades inferiores.xlsx
+++ b/predictions/single/RandomForestRegressor/Amputación extremidades inferiores.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1247159586397389</v>
+        <v>0.1275426186571785</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9907855306388423</v>
+        <v>0.9905766866993081</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2736249388562005</v>
+        <v>0.2759961217547767</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1507174699167081</v>
+        <v>0.1395347341502202</v>
       </c>
       <c r="H2" t="n">
-        <v>0.961</v>
+        <v>0.991</v>
       </c>
     </row>
   </sheetData>
